--- a/docs/视力筛查系统表格.xlsx
+++ b/docs/视力筛查系统表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhen/Documents/Dev/vision/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A699EC-C34C-0F43-AFB1-A10BF737CB99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2587FE8A-BCBE-B74F-97A9-C52F501B34B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="820" windowWidth="20520" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,11 +370,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -723,58 +723,58 @@
       <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="U1" s="2" t="s">
